--- a/GameData/技能分配简表/战技/战技：不同武器熟练度对应默认技能列表.xlsx
+++ b/GameData/技能分配简表/战技/战技：不同武器熟练度对应默认技能列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\Readme-Files\战技\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\GameData\技能分配简表\战技\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9777BD37-3151-4CCE-BFD1-7776F0BEE3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8609E62-9405-42DA-847D-7BCCD30B0FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="3540" windowWidth="16200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
